--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cxcl17</t>
   </si>
   <si>
     <t>Gpr35</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.424566955392572</v>
+        <v>0.1427023333333333</v>
       </c>
       <c r="H2">
-        <v>0.424566955392572</v>
+        <v>0.428107</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1273079012129441</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1321569978471202</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.685811973705042</v>
+        <v>0.9664256666666667</v>
       </c>
       <c r="N2">
-        <v>0.685811973705042</v>
+        <v>2.899277</v>
       </c>
       <c r="O2">
-        <v>0.01115309884728375</v>
+        <v>0.01250693652915324</v>
       </c>
       <c r="P2">
-        <v>0.01115309884728375</v>
+        <v>0.01251792220116773</v>
       </c>
       <c r="Q2">
-        <v>0.2911731016477203</v>
+        <v>0.1379111976265556</v>
       </c>
       <c r="R2">
-        <v>0.2911731016477203</v>
+        <v>1.241200778639</v>
       </c>
       <c r="S2">
-        <v>0.01115309884728375</v>
+        <v>0.001592231840130002</v>
       </c>
       <c r="T2">
-        <v>0.01115309884728375</v>
+        <v>0.001654331017390142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.424566955392572</v>
+        <v>0.1427023333333333</v>
       </c>
       <c r="H3">
-        <v>0.424566955392572</v>
+        <v>0.428107</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1273079012129441</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1321569978471202</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.949628250578</v>
+        <v>33.05738933333333</v>
       </c>
       <c r="N3">
-        <v>21.949628250578</v>
+        <v>99.172168</v>
       </c>
       <c r="O3">
-        <v>0.3569584418558374</v>
+        <v>0.4278101094288411</v>
       </c>
       <c r="P3">
-        <v>0.3569584418558374</v>
+        <v>0.4281858834271909</v>
       </c>
       <c r="Q3">
-        <v>9.319086838346688</v>
+        <v>4.717366591775112</v>
       </c>
       <c r="R3">
-        <v>9.319086838346688</v>
+        <v>42.456299325976</v>
       </c>
       <c r="S3">
-        <v>0.3569584418558374</v>
+        <v>0.05446360714906568</v>
       </c>
       <c r="T3">
-        <v>0.3569584418558374</v>
+        <v>0.05658776087425453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,1115 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.1427023333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.428107</v>
+      </c>
+      <c r="I4">
+        <v>0.1273079012129441</v>
+      </c>
+      <c r="J4">
+        <v>0.1321569978471202</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>43.04392033333333</v>
+      </c>
+      <c r="N4">
+        <v>129.131761</v>
+      </c>
+      <c r="O4">
+        <v>0.5570501675848101</v>
+      </c>
+      <c r="P4">
+        <v>0.5575394616995151</v>
+      </c>
+      <c r="Q4">
+        <v>6.142467867380777</v>
+      </c>
+      <c r="R4">
+        <v>55.282210806427</v>
+      </c>
+      <c r="S4">
+        <v>0.07091688770554093</v>
+      </c>
+      <c r="T4">
+        <v>0.07368274143950737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1427023333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.428107</v>
+      </c>
+      <c r="I5">
+        <v>0.1273079012129441</v>
+      </c>
+      <c r="J5">
+        <v>0.1321569978471202</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.2034385</v>
+      </c>
+      <c r="N5">
+        <v>0.406877</v>
+      </c>
+      <c r="O5">
+        <v>0.002632786457195509</v>
+      </c>
+      <c r="P5">
+        <v>0.001756732672126369</v>
+      </c>
+      <c r="Q5">
+        <v>0.02903114863983334</v>
+      </c>
+      <c r="R5">
+        <v>0.174186891839</v>
+      </c>
+      <c r="S5">
+        <v>0.0003351745182074228</v>
+      </c>
+      <c r="T5">
+        <v>0.0002321645159681702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.484631</v>
+      </c>
+      <c r="H6">
+        <v>1.453893</v>
+      </c>
+      <c r="I6">
+        <v>0.4323500116050213</v>
+      </c>
+      <c r="J6">
+        <v>0.4488180152881012</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.9664256666666667</v>
+      </c>
+      <c r="N6">
+        <v>2.899277</v>
+      </c>
+      <c r="O6">
+        <v>0.01250693652915324</v>
+      </c>
+      <c r="P6">
+        <v>0.01251792220116773</v>
+      </c>
+      <c r="Q6">
+        <v>0.4683598372623333</v>
+      </c>
+      <c r="R6">
+        <v>4.215238535361</v>
+      </c>
+      <c r="S6">
+        <v>0.005407374153522668</v>
+      </c>
+      <c r="T6">
+        <v>0.005618268997858959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.484631</v>
+      </c>
+      <c r="H7">
+        <v>1.453893</v>
+      </c>
+      <c r="I7">
+        <v>0.4323500116050213</v>
+      </c>
+      <c r="J7">
+        <v>0.4488180152881012</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>33.05738933333333</v>
+      </c>
+      <c r="N7">
+        <v>99.172168</v>
+      </c>
+      <c r="O7">
+        <v>0.4278101094288411</v>
+      </c>
+      <c r="P7">
+        <v>0.4281858834271909</v>
+      </c>
+      <c r="Q7">
+        <v>16.02063565000267</v>
+      </c>
+      <c r="R7">
+        <v>144.185720850024</v>
+      </c>
+      <c r="S7">
+        <v>0.1849637057763049</v>
+      </c>
+      <c r="T7">
+        <v>0.1921775383741741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.484631</v>
+      </c>
+      <c r="H8">
+        <v>1.453893</v>
+      </c>
+      <c r="I8">
+        <v>0.4323500116050213</v>
+      </c>
+      <c r="J8">
+        <v>0.4488180152881012</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>43.04392033333333</v>
+      </c>
+      <c r="N8">
+        <v>129.131761</v>
+      </c>
+      <c r="O8">
+        <v>0.5570501675848101</v>
+      </c>
+      <c r="P8">
+        <v>0.5575394616995151</v>
+      </c>
+      <c r="Q8">
+        <v>20.86041815506366</v>
+      </c>
+      <c r="R8">
+        <v>187.743763395573</v>
+      </c>
+      <c r="S8">
+        <v>0.2408406464198717</v>
+      </c>
+      <c r="T8">
+        <v>0.2502337546447727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.424566955392572</v>
-      </c>
-      <c r="H4">
-        <v>0.424566955392572</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>38.8552703930685</v>
-      </c>
-      <c r="N4">
-        <v>38.8552703930685</v>
-      </c>
-      <c r="O4">
-        <v>0.6318884592968789</v>
-      </c>
-      <c r="P4">
-        <v>0.6318884592968789</v>
-      </c>
-      <c r="Q4">
-        <v>16.49666385174024</v>
-      </c>
-      <c r="R4">
-        <v>16.49666385174024</v>
-      </c>
-      <c r="S4">
-        <v>0.6318884592968789</v>
-      </c>
-      <c r="T4">
-        <v>0.6318884592968789</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.484631</v>
+      </c>
+      <c r="H9">
+        <v>1.453893</v>
+      </c>
+      <c r="I9">
+        <v>0.4323500116050213</v>
+      </c>
+      <c r="J9">
+        <v>0.4488180152881012</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.2034385</v>
+      </c>
+      <c r="N9">
+        <v>0.406877</v>
+      </c>
+      <c r="O9">
+        <v>0.002632786457195509</v>
+      </c>
+      <c r="P9">
+        <v>0.001756732672126369</v>
+      </c>
+      <c r="Q9">
+        <v>0.09859260369349999</v>
+      </c>
+      <c r="R9">
+        <v>0.5915556221609999</v>
+      </c>
+      <c r="S9">
+        <v>0.001138285255322021</v>
+      </c>
+      <c r="T9">
+        <v>0.0007884532712955193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.357438</v>
+      </c>
+      <c r="H10">
+        <v>1.072314</v>
+      </c>
+      <c r="I10">
+        <v>0.3188783289720955</v>
+      </c>
+      <c r="J10">
+        <v>0.331024250921935</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9664256666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.899277</v>
+      </c>
+      <c r="O10">
+        <v>0.01250693652915324</v>
+      </c>
+      <c r="P10">
+        <v>0.01251792220116773</v>
+      </c>
+      <c r="Q10">
+        <v>0.345437257442</v>
+      </c>
+      <c r="R10">
+        <v>3.108935316978</v>
+      </c>
+      <c r="S10">
+        <v>0.003988191020976445</v>
+      </c>
+      <c r="T10">
+        <v>0.004143735819740608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.357438</v>
+      </c>
+      <c r="H11">
+        <v>1.072314</v>
+      </c>
+      <c r="I11">
+        <v>0.3188783289720955</v>
+      </c>
+      <c r="J11">
+        <v>0.331024250921935</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>33.05738933333333</v>
+      </c>
+      <c r="N11">
+        <v>99.172168</v>
+      </c>
+      <c r="O11">
+        <v>0.4278101094288411</v>
+      </c>
+      <c r="P11">
+        <v>0.4281858834271909</v>
+      </c>
+      <c r="Q11">
+        <v>11.815967128528</v>
+      </c>
+      <c r="R11">
+        <v>106.343704156752</v>
+      </c>
+      <c r="S11">
+        <v>0.1364193728120382</v>
+      </c>
+      <c r="T11">
+        <v>0.1417399113168329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.357438</v>
+      </c>
+      <c r="H12">
+        <v>1.072314</v>
+      </c>
+      <c r="I12">
+        <v>0.3188783289720955</v>
+      </c>
+      <c r="J12">
+        <v>0.331024250921935</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>43.04392033333333</v>
+      </c>
+      <c r="N12">
+        <v>129.131761</v>
+      </c>
+      <c r="O12">
+        <v>0.5570501675848101</v>
+      </c>
+      <c r="P12">
+        <v>0.5575394616995151</v>
+      </c>
+      <c r="Q12">
+        <v>15.385532796106</v>
+      </c>
+      <c r="R12">
+        <v>138.469795164954</v>
+      </c>
+      <c r="S12">
+        <v>0.17763122659307</v>
+      </c>
+      <c r="T12">
+        <v>0.1845590826685009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.357438</v>
+      </c>
+      <c r="H13">
+        <v>1.072314</v>
+      </c>
+      <c r="I13">
+        <v>0.3188783289720955</v>
+      </c>
+      <c r="J13">
+        <v>0.331024250921935</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.2034385</v>
+      </c>
+      <c r="N13">
+        <v>0.406877</v>
+      </c>
+      <c r="O13">
+        <v>0.002632786457195509</v>
+      </c>
+      <c r="P13">
+        <v>0.001756732672126369</v>
+      </c>
+      <c r="Q13">
+        <v>0.07271665056299999</v>
+      </c>
+      <c r="R13">
+        <v>0.436299903378</v>
+      </c>
+      <c r="S13">
+        <v>0.0008395385460108674</v>
+      </c>
+      <c r="T13">
+        <v>0.0005815211168607205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.012765</v>
+      </c>
+      <c r="H14">
+        <v>0.038295</v>
+      </c>
+      <c r="I14">
+        <v>0.01138793824195748</v>
+      </c>
+      <c r="J14">
+        <v>0.01182169932413034</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9664256666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.899277</v>
+      </c>
+      <c r="O14">
+        <v>0.01250693652915324</v>
+      </c>
+      <c r="P14">
+        <v>0.01251792220116773</v>
+      </c>
+      <c r="Q14">
+        <v>0.012336423635</v>
+      </c>
+      <c r="R14">
+        <v>0.111027812715</v>
+      </c>
+      <c r="S14">
+        <v>0.0001424282207900792</v>
+      </c>
+      <c r="T14">
+        <v>0.0001479831124250607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.012765</v>
+      </c>
+      <c r="H15">
+        <v>0.038295</v>
+      </c>
+      <c r="I15">
+        <v>0.01138793824195748</v>
+      </c>
+      <c r="J15">
+        <v>0.01182169932413034</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>33.05738933333333</v>
+      </c>
+      <c r="N15">
+        <v>99.172168</v>
+      </c>
+      <c r="O15">
+        <v>0.4278101094288411</v>
+      </c>
+      <c r="P15">
+        <v>0.4281858834271909</v>
+      </c>
+      <c r="Q15">
+        <v>0.42197757484</v>
+      </c>
+      <c r="R15">
+        <v>3.79779817356</v>
+      </c>
+      <c r="S15">
+        <v>0.004871875105460715</v>
+      </c>
+      <c r="T15">
+        <v>0.005061884768713376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.012765</v>
+      </c>
+      <c r="H16">
+        <v>0.038295</v>
+      </c>
+      <c r="I16">
+        <v>0.01138793824195748</v>
+      </c>
+      <c r="J16">
+        <v>0.01182169932413034</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>43.04392033333333</v>
+      </c>
+      <c r="N16">
+        <v>129.131761</v>
+      </c>
+      <c r="O16">
+        <v>0.5570501675848101</v>
+      </c>
+      <c r="P16">
+        <v>0.5575394616995151</v>
+      </c>
+      <c r="Q16">
+        <v>0.5494556430549999</v>
+      </c>
+      <c r="R16">
+        <v>4.945100787495</v>
+      </c>
+      <c r="S16">
+        <v>0.006343652906127884</v>
+      </c>
+      <c r="T16">
+        <v>0.006591063877549152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.012765</v>
+      </c>
+      <c r="H17">
+        <v>0.038295</v>
+      </c>
+      <c r="I17">
+        <v>0.01138793824195748</v>
+      </c>
+      <c r="J17">
+        <v>0.01182169932413034</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.2034385</v>
+      </c>
+      <c r="N17">
+        <v>0.406877</v>
+      </c>
+      <c r="O17">
+        <v>0.002632786457195509</v>
+      </c>
+      <c r="P17">
+        <v>0.001756732672126369</v>
+      </c>
+      <c r="Q17">
+        <v>0.0025968924525</v>
+      </c>
+      <c r="R17">
+        <v>0.015581354715</v>
+      </c>
+      <c r="S17">
+        <v>2.99820095788045E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.076756544275398E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.1233865</v>
+      </c>
+      <c r="H18">
+        <v>0.246773</v>
+      </c>
+      <c r="I18">
+        <v>0.1100758199679817</v>
+      </c>
+      <c r="J18">
+        <v>0.07617903661871306</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9664256666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.899277</v>
+      </c>
+      <c r="O18">
+        <v>0.01250693652915324</v>
+      </c>
+      <c r="P18">
+        <v>0.01251792220116773</v>
+      </c>
+      <c r="Q18">
+        <v>0.1192438805201667</v>
+      </c>
+      <c r="R18">
+        <v>0.715463283121</v>
+      </c>
+      <c r="S18">
+        <v>0.001376711293734046</v>
+      </c>
+      <c r="T18">
+        <v>0.0009536032537529576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.1233865</v>
+      </c>
+      <c r="H19">
+        <v>0.246773</v>
+      </c>
+      <c r="I19">
+        <v>0.1100758199679817</v>
+      </c>
+      <c r="J19">
+        <v>0.07617903661871306</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>33.05738933333333</v>
+      </c>
+      <c r="N19">
+        <v>99.172168</v>
+      </c>
+      <c r="O19">
+        <v>0.4278101094288411</v>
+      </c>
+      <c r="P19">
+        <v>0.4281858834271909</v>
+      </c>
+      <c r="Q19">
+        <v>4.078835568977333</v>
+      </c>
+      <c r="R19">
+        <v>24.473013413864</v>
+      </c>
+      <c r="S19">
+        <v>0.04709154858597168</v>
+      </c>
+      <c r="T19">
+        <v>0.03261878809321597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.1233865</v>
+      </c>
+      <c r="H20">
+        <v>0.246773</v>
+      </c>
+      <c r="I20">
+        <v>0.1100758199679817</v>
+      </c>
+      <c r="J20">
+        <v>0.07617903661871306</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>43.04392033333333</v>
+      </c>
+      <c r="N20">
+        <v>129.131761</v>
+      </c>
+      <c r="O20">
+        <v>0.5570501675848101</v>
+      </c>
+      <c r="P20">
+        <v>0.5575394616995151</v>
+      </c>
+      <c r="Q20">
+        <v>5.311038676208832</v>
+      </c>
+      <c r="R20">
+        <v>31.86623205725299</v>
+      </c>
+      <c r="S20">
+        <v>0.06131775396019961</v>
+      </c>
+      <c r="T20">
+        <v>0.04247281906918492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.1233865</v>
+      </c>
+      <c r="H21">
+        <v>0.246773</v>
+      </c>
+      <c r="I21">
+        <v>0.1100758199679817</v>
+      </c>
+      <c r="J21">
+        <v>0.07617903661871306</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.2034385</v>
+      </c>
+      <c r="N21">
+        <v>0.406877</v>
+      </c>
+      <c r="O21">
+        <v>0.002632786457195509</v>
+      </c>
+      <c r="P21">
+        <v>0.001756732672126369</v>
+      </c>
+      <c r="Q21">
+        <v>0.02510156448025</v>
+      </c>
+      <c r="R21">
+        <v>0.100406257921</v>
+      </c>
+      <c r="S21">
+        <v>0.0002898061280763933</v>
+      </c>
+      <c r="T21">
+        <v>0.0001338262025592043</v>
       </c>
     </row>
   </sheetData>
